--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_12_1.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_12_1.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9992500006322541</v>
+        <v>0.668465394555499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7028714624996292</v>
+        <v>0.3669871301603896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9991817455270242</v>
+        <v>0.3284766427566518</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9983541948988406</v>
+        <v>0.6912969318619371</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9991129688125326</v>
+        <v>0.5447418974917702</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004452320229796702</v>
+        <v>0.1968132633410997</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1763883351447175</v>
+        <v>0.3757837842689521</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004534162925844378</v>
+        <v>0.291345768517171</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003238816065737336</v>
+        <v>0.1931324312935877</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0003886489495790857</v>
+        <v>0.2422390999053793</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01339471691309289</v>
+        <v>0.3061335442703778</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02110052186510254</v>
+        <v>0.443636408944419</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000399999662798</v>
+        <v>0.005396183666497079</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02199881476500175</v>
+        <v>0.4625229293271516</v>
       </c>
       <c r="P2" t="n">
-        <v>153.4338300234509</v>
+        <v>35.25099980321803</v>
       </c>
       <c r="Q2" t="n">
-        <v>237.5362619393567</v>
+        <v>54.75301300110924</v>
       </c>
     </row>
     <row r="3">
@@ -577,162 +577,162 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9993829868950446</v>
+        <v>0.5730805178603686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7014613793251201</v>
+        <v>0.1526298917643337</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9993236748892003</v>
+        <v>-0.3367780526264603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9985345820582748</v>
+        <v>0.5626817420104353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9992432286307873</v>
+        <v>0.1979117323784769</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003662856326798737</v>
+        <v>0.2534378465594559</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1772254214295275</v>
+        <v>0.5030355007314021</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003747695056347772</v>
+        <v>0.5799718280509611</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002883828206229058</v>
+        <v>0.2735973403958118</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003315761631288415</v>
+        <v>0.4267845842233865</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01211471817880596</v>
+        <v>0.2979901358153695</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01913859014347383</v>
+        <v>0.503426108341091</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000329073655976</v>
+        <v>-0.2807584464188941</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01995335954822476</v>
+        <v>0.5248580000088802</v>
       </c>
       <c r="P3" t="n">
-        <v>153.8241942235438</v>
+        <v>34.74527333447551</v>
       </c>
       <c r="Q3" t="n">
-        <v>237.9266261394497</v>
+        <v>54.24728653236672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_2</t>
+          <t>model_12_1_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994908735215819</v>
+        <v>0.609614530547669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7001440294289123</v>
+        <v>0.002541521692801862</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9994404601739467</v>
+        <v>-0.3623055645206619</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9986768060831138</v>
+        <v>0.6569749290001983</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9993490180523787</v>
+        <v>0.2429386278016462</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003022394707076903</v>
+        <v>0.2317496784411012</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1780074572344689</v>
+        <v>0.5921344406858611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003100557123259379</v>
+        <v>0.5910471428422116</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002603942418867067</v>
+        <v>0.2146051425935885</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002852249771063223</v>
+        <v>0.4028261427179001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01095947325344418</v>
+        <v>0.3138185153492742</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0173850358270465</v>
+        <v>0.4814038620961626</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000271534121823</v>
+        <v>-0.171156408356993</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01812515279418926</v>
+        <v>0.5018982211489709</v>
       </c>
       <c r="P4" t="n">
-        <v>154.2085818108889</v>
+        <v>34.9241949241241</v>
       </c>
       <c r="Q4" t="n">
-        <v>238.3110137267947</v>
+        <v>54.42620812201531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_3</t>
+          <t>model_12_1_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995782813547747</v>
+        <v>0.6072214655314201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6989165947325526</v>
+        <v>-0.04094115431146617</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9995360267906559</v>
+        <v>-0.3498168731684164</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9987882311812806</v>
+        <v>0.6541451129941536</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9994344731337086</v>
+        <v>0.2463665270437417</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002503504051026635</v>
+        <v>0.2331703052097727</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1787361154926461</v>
+        <v>0.6179476355157937</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002570997402241395</v>
+        <v>0.5856288244165798</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002384666516869622</v>
+        <v>0.2163755469133684</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002477831959555509</v>
+        <v>0.4010021856649741</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009917282098416233</v>
+        <v>0.3115769347948411</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01582246520307956</v>
+        <v>0.4828771119133445</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000224916610787</v>
+        <v>-0.1783356034057397</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01649606030379295</v>
+        <v>0.5034341902609177</v>
       </c>
       <c r="P5" t="n">
-        <v>154.5852980020888</v>
+        <v>34.91197233752788</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.6877299179946</v>
+        <v>54.41398553541909</v>
       </c>
     </row>
     <row r="6">
@@ -742,107 +742,107 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996490173295509</v>
+        <v>0.6054560500511579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.697775701579084</v>
+        <v>-0.06882964501701161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9996138858632053</v>
+        <v>-0.3793646679167069</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9988747163703067</v>
+        <v>0.6499248830334401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9995031299296888</v>
+        <v>0.2318391191852669</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002083584748404631</v>
+        <v>0.2342183321008341</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1794133989525631</v>
+        <v>0.6345034483186751</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002139559833791044</v>
+        <v>0.5984483710132423</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002214470410739776</v>
+        <v>0.2190158292981425</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000217701512226541</v>
+        <v>0.4087321001556924</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008976909706665866</v>
+        <v>0.3108472042124732</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01443462763082107</v>
+        <v>0.4839610853166131</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000187190757573</v>
+        <v>-0.1836318498465264</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01504913961286358</v>
+        <v>0.5045643106560977</v>
       </c>
       <c r="P6" t="n">
-        <v>154.9525010498858</v>
+        <v>34.90300311094536</v>
       </c>
       <c r="Q6" t="n">
-        <v>239.0549329657917</v>
+        <v>54.40501630883657</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_1_5</t>
+          <t>model_12_1_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997061437519661</v>
+        <v>0.6072115960342183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6967171150699505</v>
+        <v>-0.1291391668403299</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9996769374725736</v>
+        <v>-0.3591552443037469</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9989406961297543</v>
+        <v>0.6526386204380454</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9995578181858907</v>
+        <v>0.2416737027127724</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001744457627618936</v>
+        <v>0.2331761641696517</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1800418216329409</v>
+        <v>0.6703057857086872</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001790174307583251</v>
+        <v>0.5896803512708207</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002084627390589878</v>
+        <v>0.2173180466813226</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001937400849086564</v>
+        <v>0.4034991989760717</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008132713869668726</v>
+        <v>0.3112909259815999</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01320779174434143</v>
+        <v>0.4828831785946283</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000156723332285</v>
+        <v>-0.1783652118973453</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01377007478279611</v>
+        <v>0.5034405152133836</v>
       </c>
       <c r="P7" t="n">
-        <v>155.3077933595058</v>
+        <v>34.91192208339054</v>
       </c>
       <c r="Q7" t="n">
-        <v>239.4102252754117</v>
+        <v>54.41393528128175</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997522074487648</v>
+        <v>0.6108461330541126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6957373039973413</v>
+        <v>-0.3484282777323902</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9997276280582338</v>
+        <v>-0.378630495183176</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9989903538097783</v>
+        <v>0.653913832844676</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9996010243888486</v>
+        <v>0.2344835072632979</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001471003624940972</v>
+        <v>0.2310185459908183</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1806234798112762</v>
+        <v>0.800485274730564</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001509284460010519</v>
+        <v>0.5981298443127669</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001986904949618323</v>
+        <v>0.2165202416125431</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001748094704814421</v>
+        <v>0.407325042962655</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007373030039386921</v>
+        <v>0.3048499678980879</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01212849382627939</v>
+        <v>0.480643886875531</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000132156027326</v>
+        <v>-0.1674616008376622</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01264482891790747</v>
+        <v>0.5011058922098314</v>
       </c>
       <c r="P8" t="n">
-        <v>155.6487909321801</v>
+        <v>34.93051457201705</v>
       </c>
       <c r="Q8" t="n">
-        <v>239.7512228480859</v>
+        <v>54.43252776990826</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997892570206462</v>
+        <v>0.6150986798044005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6948336283491809</v>
+        <v>-1.705019506812091</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9997680419528415</v>
+        <v>-0.3743197021067182</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9990269682456726</v>
+        <v>0.6413140529832608</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9996348029150485</v>
+        <v>0.2288336660082413</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001251061361670544</v>
+        <v>0.2284940505393928</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1811599407127796</v>
+        <v>1.605816430002029</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001285340456438182</v>
+        <v>0.5962595723285804</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001914850595716357</v>
+        <v>0.224402981920491</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001600095526077269</v>
+        <v>0.4103312771245357</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006687706816497412</v>
+        <v>0.2791449168010035</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01118508543405254</v>
+        <v>0.4780105130009096</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000112396255655</v>
+        <v>-0.1547039605867986</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01166125767729894</v>
+        <v>0.498360410157532</v>
       </c>
       <c r="P9" t="n">
-        <v>155.9726961831959</v>
+        <v>34.95249021202715</v>
       </c>
       <c r="Q9" t="n">
-        <v>240.0751280991018</v>
+        <v>54.45450340991836</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998189876285448</v>
+        <v>0.63368464665321</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6940019319659255</v>
+        <v>-5.9333546238542</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9997999560258022</v>
+        <v>-0.1492818869585575</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9990531356767385</v>
+        <v>0.5463775669134117</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996608604221812</v>
+        <v>0.2647671185566666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001074567630230686</v>
+        <v>0.2174606177459766</v>
       </c>
       <c r="H10" t="n">
-        <v>0.181653671613293</v>
+        <v>4.115938810044609</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001108496196846502</v>
+        <v>0.4986251200156927</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001863355132447027</v>
+        <v>0.2837976438645038</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001485925664646765</v>
+        <v>0.3912113819400983</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0060693055643252</v>
+        <v>0.2704245609307981</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01036613539478762</v>
+        <v>0.4663267285348081</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000096539931443</v>
+        <v>-0.09894606004036999</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01080744323940222</v>
+        <v>0.4861792227979403</v>
       </c>
       <c r="P10" t="n">
-        <v>156.276843991478</v>
+        <v>35.0514750253655</v>
       </c>
       <c r="Q10" t="n">
-        <v>240.3792759073839</v>
+        <v>54.55348822325671</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998427680160467</v>
+        <v>0.6158529849750656</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6932385971711668</v>
+        <v>-6.848960933691401</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998248716847656</v>
+        <v>-0.2507903656242598</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9990709626558496</v>
+        <v>0.4788087339156645</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999680619407861</v>
+        <v>0.183659843195543</v>
       </c>
       <c r="G11" t="n">
-        <v>9.333969774276519e-05</v>
+        <v>0.2280462624057993</v>
       </c>
       <c r="H11" t="n">
-        <v>0.182106820121808</v>
+        <v>4.659482267697109</v>
       </c>
       <c r="I11" t="n">
-        <v>9.704319871462331e-05</v>
+        <v>0.5426653837069983</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001828273028066746</v>
+        <v>0.3260704112692289</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001399352507606489</v>
+        <v>0.4343678974881136</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00551165971792116</v>
+        <v>0.2736137324301914</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00966124721465946</v>
+        <v>0.4775418959691383</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000083857058109</v>
+        <v>-0.1524410450748033</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01007254651012631</v>
+        <v>0.4978718431285471</v>
       </c>
       <c r="P11" t="n">
-        <v>156.5585301113738</v>
+        <v>34.9564135306432</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.6609620272797</v>
+        <v>54.45842672853441</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998617228178157</v>
+        <v>0.6078097034959522</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6925390479960072</v>
+        <v>-7.399574679700153</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998440778809596</v>
+        <v>-0.3097880127074437</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9990820531850807</v>
+        <v>0.4626466215089318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9996952551622861</v>
+        <v>0.1501054583608069</v>
       </c>
       <c r="G12" t="n">
-        <v>8.208730860782631e-05</v>
+        <v>0.2328211017434694</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1825221027311337</v>
+        <v>4.986350372603253</v>
       </c>
       <c r="I12" t="n">
-        <v>8.640054100783525e-05</v>
+        <v>0.5682619838025125</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001806447731604855</v>
+        <v>0.33618183673312</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001335226570841604</v>
+        <v>0.4522219102678163</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00505315475028474</v>
+        <v>0.2761300782178012</v>
       </c>
       <c r="M12" t="n">
-        <v>0.009060204666994356</v>
+        <v>0.4825153901622926</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000073747830498</v>
+        <v>-0.1765708895121434</v>
       </c>
       <c r="O12" t="n">
-        <v>0.009445916336877511</v>
+        <v>0.5030570692660562</v>
       </c>
       <c r="P12" t="n">
-        <v>156.8154542760257</v>
+        <v>34.91496984800948</v>
       </c>
       <c r="Q12" t="n">
-        <v>240.9178861919315</v>
+        <v>54.41698304590069</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998767936612104</v>
+        <v>0.6044205660503754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6919003395966139</v>
+        <v>-7.781006774029143</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998586253390613</v>
+        <v>-0.3400133193122186</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990883193037375</v>
+        <v>0.4589038745943135</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997058650846937</v>
+        <v>0.1355825436358233</v>
       </c>
       <c r="G13" t="n">
-        <v>7.314060494219824e-05</v>
+        <v>0.2348330401342783</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1829012676277797</v>
+        <v>5.212784940805472</v>
       </c>
       <c r="I13" t="n">
-        <v>7.833941242641528e-05</v>
+        <v>0.5813754743258869</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000179411649884752</v>
+        <v>0.338523393672274</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001288739646175421</v>
+        <v>0.4599494339990804</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004641325296000531</v>
+        <v>0.2772816504355419</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008552228068883467</v>
+        <v>0.4845957491913011</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000065710047354</v>
+        <v>-0.1867383018488737</v>
       </c>
       <c r="O13" t="n">
-        <v>0.008916314123328521</v>
+        <v>0.5052259934858665</v>
       </c>
       <c r="P13" t="n">
-        <v>157.0462537485201</v>
+        <v>34.89776096970667</v>
       </c>
       <c r="Q13" t="n">
-        <v>241.1486856644259</v>
+        <v>54.39977416759788</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998887259057053</v>
+        <v>0.6028077071745247</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6913185214520811</v>
+        <v>-8.080484750154142</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998694509590967</v>
+        <v>-0.3538228773546976</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990907624275566</v>
+        <v>0.4564984656562754</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997132557930627</v>
+        <v>0.1285383910754399</v>
       </c>
       <c r="G14" t="n">
-        <v>6.605710916392964e-05</v>
+        <v>0.235790502834859</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1832466600116096</v>
+        <v>5.390568004208233</v>
       </c>
       <c r="I14" t="n">
-        <v>7.234065206091934e-05</v>
+        <v>0.5873668613079939</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001789308621736159</v>
+        <v>0.3400282782179982</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001256357571172676</v>
+        <v>0.463697569762996</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004270824470609135</v>
+        <v>0.277752224293614</v>
       </c>
       <c r="M14" t="n">
-        <v>0.008127552470696799</v>
+        <v>0.485582642641661</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000059346183624</v>
+        <v>-0.1915768784764258</v>
       </c>
       <c r="O14" t="n">
-        <v>0.008473559205727366</v>
+        <v>0.5062549010335593</v>
       </c>
       <c r="P14" t="n">
-        <v>157.2499817994463</v>
+        <v>34.88962313609532</v>
       </c>
       <c r="Q14" t="n">
-        <v>241.3524137153522</v>
+        <v>54.39163633398653</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999898120409863</v>
+        <v>0.6019739917253153</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6907887139931645</v>
+        <v>-8.334689651120652</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998772810431628</v>
+        <v>-0.3593327895605483</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9990901473377313</v>
+        <v>0.4539396574444194</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9997180690433168</v>
+        <v>0.1247877464989813</v>
       </c>
       <c r="G15" t="n">
-        <v>6.048012567443138e-05</v>
+        <v>0.2362854323401418</v>
       </c>
       <c r="H15" t="n">
-        <v>0.183561176605713</v>
+        <v>5.541475014501898</v>
       </c>
       <c r="I15" t="n">
-        <v>6.800179684520873e-05</v>
+        <v>0.589757380697618</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001790519070535164</v>
+        <v>0.3416291332213205</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001235268519493625</v>
+        <v>0.4656932569594692</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003937434480619991</v>
+        <v>0.2779069980652518</v>
       </c>
       <c r="M15" t="n">
-        <v>0.007776896918079304</v>
+        <v>0.486091999872598</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000054335781406</v>
+        <v>-0.1940780248240541</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008107975520277883</v>
+        <v>0.5067859426563321</v>
       </c>
       <c r="P15" t="n">
-        <v>157.4263914962898</v>
+        <v>34.88542949138911</v>
       </c>
       <c r="Q15" t="n">
-        <v>241.5288234121956</v>
+        <v>54.38744268928032</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999054770427734</v>
+        <v>0.6015223844270585</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6903071099425884</v>
+        <v>-8.562147061859369</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998827288597461</v>
+        <v>-0.3609571134430158</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9990873268153658</v>
+        <v>0.4514022954712842</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9997208805751063</v>
+        <v>0.1226338290659655</v>
       </c>
       <c r="G16" t="n">
-        <v>5.611291058885491e-05</v>
+        <v>0.2365535259408066</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1838470775743467</v>
+        <v>5.676503559164932</v>
       </c>
       <c r="I16" t="n">
-        <v>6.498301860508676e-05</v>
+        <v>0.5904621065790839</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001796069638548606</v>
+        <v>0.343216570916382</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001222949912299737</v>
+        <v>0.466839338747733</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003637527627946246</v>
+        <v>0.2779238296802454</v>
       </c>
       <c r="M16" t="n">
-        <v>0.007490855130681337</v>
+        <v>0.4863676859545735</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000050412243854</v>
+        <v>-0.1954328467188244</v>
       </c>
       <c r="O16" t="n">
-        <v>0.007809756341802256</v>
+        <v>0.5070733652655661</v>
       </c>
       <c r="P16" t="n">
-        <v>157.576289273278</v>
+        <v>34.88316154265352</v>
       </c>
       <c r="Q16" t="n">
-        <v>241.6787211891838</v>
+        <v>54.38517474054473</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999911198858239</v>
+        <v>0.6012728108410613</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6898698464007497</v>
+        <v>-8.771868214417308</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998863107434157</v>
+        <v>-0.3608367327161028</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9990828537252104</v>
+        <v>0.4490925524035561</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9997221337763246</v>
+        <v>0.1213250272365948</v>
       </c>
       <c r="G17" t="n">
-        <v>5.27161937589211e-05</v>
+        <v>0.2367016836024721</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1841066561015837</v>
+        <v>5.801003094805395</v>
       </c>
       <c r="I17" t="n">
-        <v>6.299820279580922e-05</v>
+        <v>0.5904098784398557</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001804872331071812</v>
+        <v>0.3446616044789714</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001217459064357008</v>
+        <v>0.4675357414594136</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003367699683352095</v>
+        <v>0.2778848865051994</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00726059183255202</v>
+        <v>0.4865199724599927</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000047360608939</v>
+        <v>-0.1961815674768159</v>
       </c>
       <c r="O17" t="n">
-        <v>0.007569690258360836</v>
+        <v>0.5072321349227977</v>
       </c>
       <c r="P17" t="n">
-        <v>157.7011757353308</v>
+        <v>34.88190929935207</v>
       </c>
       <c r="Q17" t="n">
-        <v>241.8036076512367</v>
+        <v>54.38392249724328</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999156168680028</v>
+        <v>0.601142676879356</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6894736310011833</v>
+        <v>-8.968433019407634</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998884424297143</v>
+        <v>-0.3599766521401224</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9990772430744645</v>
+        <v>0.4471262915795198</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9997222290277615</v>
+        <v>0.1205197248526076</v>
       </c>
       <c r="G18" t="n">
-        <v>5.009347231505381e-05</v>
+        <v>0.2367789367436348</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1843418666783803</v>
+        <v>5.917692454205101</v>
       </c>
       <c r="I18" t="n">
-        <v>6.181697943515224e-05</v>
+        <v>0.5900367256169601</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001815913654107242</v>
+        <v>0.3458917468801919</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001217041724229382</v>
+        <v>0.4679642362485759</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003124852197168764</v>
+        <v>0.277827344778358</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007077674216510238</v>
+        <v>0.4865993595799678</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000045004337065</v>
+        <v>-0.1965719693619321</v>
       </c>
       <c r="O18" t="n">
-        <v>0.007378985460712489</v>
+        <v>0.507314901716824</v>
       </c>
       <c r="P18" t="n">
-        <v>157.8032397029501</v>
+        <v>34.88125665898177</v>
       </c>
       <c r="Q18" t="n">
-        <v>241.9056716188559</v>
+        <v>54.38326985687299</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999189933153744</v>
+        <v>0.6040665868908279</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6891143999712569</v>
+        <v>-9.388995911990555</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999889440317056</v>
+        <v>-0.356689337206483</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9990709108354449</v>
+        <v>0.4617935058206574</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997214379900117</v>
+        <v>0.1304826742980175</v>
       </c>
       <c r="G19" t="n">
-        <v>4.808906730036547e-05</v>
+        <v>0.2350431774544893</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1845551217357171</v>
+        <v>6.167356754613323</v>
       </c>
       <c r="I19" t="n">
-        <v>6.126402385247886e-05</v>
+        <v>0.5886104977942515</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001828375006581138</v>
+        <v>0.3367155674408999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001220507622552963</v>
+        <v>0.4626630326175757</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002906427367585627</v>
+        <v>0.2777098779526296</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006934628129926324</v>
+        <v>0.484812517840133</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000043203565134</v>
+        <v>-0.1878002393275162</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007229849606076478</v>
+        <v>0.5054519904248522</v>
       </c>
       <c r="P19" t="n">
-        <v>157.8849113954795</v>
+        <v>34.89597209573217</v>
       </c>
       <c r="Q19" t="n">
-        <v>241.9873433113854</v>
+        <v>54.39798529362338</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999215463289853</v>
+        <v>0.6023645249343565</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6887895524293721</v>
+        <v>-9.558233147345609</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998895998292968</v>
+        <v>-0.3560763112693694</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9990641563345872</v>
+        <v>0.4503922158660634</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997200219735984</v>
+        <v>0.1240298698478346</v>
       </c>
       <c r="G20" t="n">
-        <v>4.657348813642575e-05</v>
+        <v>0.2360535949570988</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1847479652692631</v>
+        <v>6.267823288187989</v>
       </c>
       <c r="I20" t="n">
-        <v>6.117563393071455e-05</v>
+        <v>0.5883445315983733</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001841667337415707</v>
+        <v>0.343848502212475</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001226711838361426</v>
+        <v>0.4660965169054242</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002716961089588578</v>
+        <v>0.2776469315284633</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006824477132823126</v>
+        <v>0.4858534706648691</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000041841957874</v>
+        <v>-0.1929064251969304</v>
       </c>
       <c r="O20" t="n">
-        <v>0.007115009252982598</v>
+        <v>0.5065372587664067</v>
       </c>
       <c r="P20" t="n">
-        <v>157.9489582056849</v>
+        <v>34.88739280492673</v>
       </c>
       <c r="Q20" t="n">
-        <v>242.0513901215907</v>
+        <v>54.38940600281794</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999234562534857</v>
+        <v>0.6063280392210126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6884961163721117</v>
+        <v>-10.48953135527782</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998891440761436</v>
+        <v>-0.351637248759312</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9990573444745631</v>
+        <v>0.4703688365809919</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997182040104069</v>
+        <v>0.1375837350284304</v>
       </c>
       <c r="G21" t="n">
-        <v>4.543967444856469e-05</v>
+        <v>0.2337006816616375</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1849221615886305</v>
+        <v>6.820682134404393</v>
       </c>
       <c r="I21" t="n">
-        <v>6.142817872193399e-05</v>
+        <v>0.5864186088965964</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001855072546615901</v>
+        <v>0.3313506240703034</v>
       </c>
       <c r="K21" t="n">
-        <v>0.000123467716691762</v>
+        <v>0.4588846164834498</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002550345020105806</v>
+        <v>0.2774708067535885</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006740895671093323</v>
+        <v>0.4834259836434504</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000040823331474</v>
+        <v>-0.1810158823369621</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00702786955538948</v>
+        <v>0.5040064285968953</v>
       </c>
       <c r="P21" t="n">
-        <v>157.9982498960025</v>
+        <v>34.90742824123628</v>
       </c>
       <c r="Q21" t="n">
-        <v>242.1006818119083</v>
+        <v>54.40944143912749</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999924847166097</v>
+        <v>0.6072865679660409</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6882308744444389</v>
+        <v>-11.47922536840765</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9998882309058417</v>
+        <v>-0.3485260184468892</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9990503862328933</v>
+        <v>0.4729091784930923</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997160639242487</v>
+        <v>0.1403456025903137</v>
       </c>
       <c r="G22" t="n">
-        <v>4.461396863821575e-05</v>
+        <v>0.233131657592303</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1850796206547518</v>
+        <v>7.408207253153536</v>
       </c>
       <c r="I22" t="n">
-        <v>6.193419036807859e-05</v>
+        <v>0.585068776792278</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001868765823476698</v>
+        <v>0.3297613220502096</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001244053863578741</v>
+        <v>0.4574150494212438</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002400421031521147</v>
+        <v>0.2773326190276457</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006679368880232304</v>
+        <v>0.4828370921877305</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000040081511415</v>
+        <v>-0.1781402961018774</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006963723441663492</v>
+        <v>0.5033924668127321</v>
       </c>
       <c r="P22" t="n">
-        <v>158.0349270996166</v>
+        <v>34.91230386191028</v>
       </c>
       <c r="Q22" t="n">
-        <v>242.1373590155224</v>
+        <v>54.41431705980149</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999925842265041</v>
+        <v>0.6066642130909479</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6879913784934484</v>
+        <v>-14.42436957748881</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9998869994354314</v>
+        <v>-0.3376827049272046</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9990436593445909</v>
+        <v>0.459570517581112</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997137745157365</v>
+        <v>0.1369246281709664</v>
       </c>
       <c r="G23" t="n">
-        <v>4.402323491900665e-05</v>
+        <v>0.233501114330489</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1852217957969461</v>
+        <v>9.156572079269514</v>
       </c>
       <c r="I23" t="n">
-        <v>6.261658046346883e-05</v>
+        <v>0.580364318672409</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001882003814956273</v>
+        <v>0.3381063249932299</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000125408480979548</v>
+        <v>0.4592353218328195</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002265567466906551</v>
+        <v>0.2764762661767571</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006635000747475968</v>
+        <v>0.4832195301625224</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000039550791978</v>
+        <v>-0.1800073607271564</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006917466465641022</v>
+        <v>0.5037911859638666</v>
       </c>
       <c r="P23" t="n">
-        <v>158.0615859941658</v>
+        <v>34.90913685918252</v>
       </c>
       <c r="Q23" t="n">
-        <v>242.1640179100717</v>
+        <v>54.41115005707373</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999265258082343</v>
+        <v>0.6068764374121539</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6877752963608745</v>
+        <v>-15.09046292133887</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9998855674813738</v>
+        <v>-0.3331905691088553</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9990371109098761</v>
+        <v>0.4576033671178726</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999711398406647</v>
+        <v>0.1375995587074756</v>
       </c>
       <c r="G24" t="n">
-        <v>4.36174541519902e-05</v>
+        <v>0.2333751288058077</v>
       </c>
       <c r="H24" t="n">
-        <v>0.185350071485104</v>
+        <v>9.551993861913139</v>
       </c>
       <c r="I24" t="n">
-        <v>6.341006381288562e-05</v>
+        <v>0.5784153696922081</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001894890623694948</v>
+        <v>0.3393370239751908</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001264495630911902</v>
+        <v>0.4588761968336995</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002144258201863182</v>
+        <v>0.2766267508167192</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006604351152989233</v>
+        <v>0.4830891520266293</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000039186235608</v>
+        <v>-0.1793706877635382</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006885512054463579</v>
+        <v>0.5036552573608085</v>
       </c>
       <c r="P24" t="n">
-        <v>158.0801063262617</v>
+        <v>34.91021625038814</v>
       </c>
       <c r="Q24" t="n">
-        <v>242.1825382421676</v>
+        <v>54.41222944827935</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999926967691674</v>
+        <v>0.6062114769828537</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6875803338597206</v>
+        <v>-15.92596932291812</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9998839943188625</v>
+        <v>-0.3376827171131624</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9990308525681155</v>
+        <v>0.4554135928729097</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997089981511612</v>
+        <v>0.1344807995462949</v>
       </c>
       <c r="G25" t="n">
-        <v>4.335513305377844e-05</v>
+        <v>0.2337698780414351</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1854658096477305</v>
+        <v>10.04798655388785</v>
       </c>
       <c r="I25" t="n">
-        <v>6.428179447497286e-05</v>
+        <v>0.5803643239593841</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001907206552127115</v>
+        <v>0.3407070020141671</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001275012248438422</v>
+        <v>0.4605356629867756</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002035099207583566</v>
+        <v>0.2768676710070242</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00658446148548068</v>
+        <v>0.4834975470893675</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00003895056444</v>
+        <v>-0.1813655690514389</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0068647756426319</v>
+        <v>0.5040810386468619</v>
       </c>
       <c r="P25" t="n">
-        <v>158.092170904405</v>
+        <v>34.90683614935912</v>
       </c>
       <c r="Q25" t="n">
-        <v>242.1946028203109</v>
+        <v>54.40884934725033</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999272284731927</v>
+        <v>0.6055712445762567</v>
       </c>
       <c r="C26" t="n">
-        <v>0.687404577244939</v>
+        <v>-16.76934940279592</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998823715678591</v>
+        <v>-0.3395005068337222</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9990249398681287</v>
+        <v>0.4520713061536498</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9997066441603245</v>
+        <v>0.1317747988598589</v>
       </c>
       <c r="G26" t="n">
-        <v>4.320032187907321e-05</v>
+        <v>0.2341499476545911</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1855701463665554</v>
+        <v>10.54865340142577</v>
       </c>
       <c r="I26" t="n">
-        <v>6.518100342291311e-05</v>
+        <v>0.5811529865389155</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001918842284508741</v>
+        <v>0.3427980209472289</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001285326159368936</v>
+        <v>0.4619755037430722</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001936895012645326</v>
+        <v>0.2769760200727748</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006572695176187103</v>
+        <v>0.483890429389331</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000038811480964</v>
+        <v>-0.18328626627123</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006852508417192078</v>
+        <v>0.5044906467597133</v>
       </c>
       <c r="P26" t="n">
-        <v>158.099325223675</v>
+        <v>34.90358713381527</v>
       </c>
       <c r="Q26" t="n">
-        <v>242.2017571395808</v>
+        <v>54.40560033170648</v>
       </c>
     </row>
   </sheetData>
